--- a/Saved_file/EM002/2026_04/sap_data.xlsx
+++ b/Saved_file/EM002/2026_04/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST9134</t>
+          <t>CUST9308</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22586643</v>
+        <v>11338691</v>
       </c>
       <c r="E2" t="n">
-        <v>2570937</v>
+        <v>2075048</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST3053</t>
+          <t>CUST8493</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9572387</v>
+        <v>14397690</v>
       </c>
       <c r="E3" t="n">
-        <v>1644723</v>
+        <v>2085948</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST2970</t>
+          <t>CUST5891</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21074394</v>
+        <v>18927244</v>
       </c>
       <c r="E4" t="n">
-        <v>3808585</v>
+        <v>2543398</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST7023</t>
+          <t>CUST6475</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20820678</v>
+        <v>14220274</v>
       </c>
       <c r="E5" t="n">
-        <v>3500916</v>
+        <v>2251196</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-04-13</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST3301</t>
+          <t>CUST8681</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13406926</v>
+        <v>20494733</v>
       </c>
       <c r="E6" t="n">
-        <v>2609172</v>
+        <v>3766798</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST5865</t>
+          <t>CUST8681</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13194703</v>
+        <v>16592086</v>
       </c>
       <c r="E7" t="n">
-        <v>1566966</v>
+        <v>3258726</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST6501</t>
+          <t>CUST4402</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9301489</v>
+        <v>9497502</v>
       </c>
       <c r="E8" t="n">
-        <v>976446</v>
+        <v>1877658</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST6353</t>
+          <t>CUST2531</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21511582</v>
+        <v>15640879</v>
       </c>
       <c r="E9" t="n">
-        <v>3331050</v>
+        <v>2680006</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST6353</t>
+          <t>CUST2022</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16093634</v>
+        <v>19657166</v>
       </c>
       <c r="E10" t="n">
-        <v>3160731</v>
+        <v>3132778</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST1579</t>
+          <t>CUST2775</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22955147</v>
+        <v>20311249</v>
       </c>
       <c r="E11" t="n">
-        <v>2356678</v>
+        <v>2665325</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST3673</t>
+          <t>CUST6475</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8782838</v>
+        <v>8225121</v>
       </c>
       <c r="E12" t="n">
-        <v>1262638</v>
+        <v>1214248</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST3301</t>
+          <t>CUST4164</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15386800</v>
+        <v>17743759</v>
       </c>
       <c r="E13" t="n">
-        <v>2128033</v>
+        <v>2667046</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST6606</t>
+          <t>CUST4927</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24651300</v>
+        <v>20345363</v>
       </c>
       <c r="E14" t="n">
-        <v>4012797</v>
+        <v>3562337</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST4658</t>
+          <t>CUST3072</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18612618</v>
+        <v>23936647</v>
       </c>
       <c r="E15" t="n">
-        <v>2286035</v>
+        <v>4636456</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST5082</t>
+          <t>CUST8501</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24456645</v>
+        <v>13981177</v>
       </c>
       <c r="E16" t="n">
-        <v>3458043</v>
+        <v>1419251</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1307,20 +1307,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST5967</t>
+          <t>CUST9308</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8655793</v>
+        <v>13782542</v>
       </c>
       <c r="E17" t="n">
-        <v>870005</v>
+        <v>2111975</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST7853</t>
+          <t>CUST4313</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15260869</v>
+        <v>12615223</v>
       </c>
       <c r="E18" t="n">
-        <v>1791130</v>
+        <v>2445940</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST4684</t>
+          <t>CUST2775</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16828973</v>
+        <v>20041752</v>
       </c>
       <c r="E19" t="n">
-        <v>1895006</v>
+        <v>2089663</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST6606</t>
+          <t>CUST9674</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18683798</v>
+        <v>8232695</v>
       </c>
       <c r="E20" t="n">
-        <v>1940932</v>
+        <v>826114</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST6167</t>
+          <t>CUST9674</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21047432</v>
+        <v>9954505</v>
       </c>
       <c r="E21" t="n">
-        <v>3408708</v>
+        <v>1527848</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST3053</t>
+          <t>CUST4313</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13133174</v>
+        <v>16335622</v>
       </c>
       <c r="E22" t="n">
-        <v>2227710</v>
+        <v>1787613</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST5967</t>
+          <t>CUST3524</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10109377</v>
+        <v>10614685</v>
       </c>
       <c r="E23" t="n">
-        <v>1742246</v>
+        <v>1098561</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST4684</t>
+          <t>CUST3406</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11111957</v>
+        <v>11267381</v>
       </c>
       <c r="E24" t="n">
-        <v>1866489</v>
+        <v>1645495</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST4462</t>
+          <t>CUST6095</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9478472</v>
+        <v>22171682</v>
       </c>
       <c r="E25" t="n">
-        <v>1031656</v>
+        <v>4248243</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST1595</t>
+          <t>CUST4927</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16341702</v>
+        <v>9421369</v>
       </c>
       <c r="E26" t="n">
-        <v>3221313</v>
+        <v>1623456</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-04-13</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST6167</t>
+          <t>CUST9308</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18277013</v>
+        <v>10070105</v>
       </c>
       <c r="E27" t="n">
-        <v>2197656</v>
+        <v>1827385</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST5082</t>
+          <t>CUST4905</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18622748</v>
+        <v>14567003</v>
       </c>
       <c r="E28" t="n">
-        <v>2100315</v>
+        <v>2356515</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST6210</t>
+          <t>CUST5891</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11055441</v>
+        <v>21070433</v>
       </c>
       <c r="E29" t="n">
-        <v>1737049</v>
+        <v>2520106</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-04-09</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST5942</t>
+          <t>CUST5891</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11738434</v>
+        <v>22720989</v>
       </c>
       <c r="E30" t="n">
-        <v>1636216</v>
+        <v>3736495</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-04-30</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST7853</t>
+          <t>CUST2955</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21422974</v>
+        <v>13224317</v>
       </c>
       <c r="E31" t="n">
-        <v>3321275</v>
+        <v>1836633</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST5771</t>
+          <t>CUST6857</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>13207966</v>
+        <v>12361862</v>
       </c>
       <c r="E32" t="n">
-        <v>2440362</v>
+        <v>2107291</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST6353</t>
+          <t>CUST7877</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9788223</v>
+        <v>15676128</v>
       </c>
       <c r="E33" t="n">
-        <v>1064094</v>
+        <v>2050102</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST5942</t>
+          <t>CUST7441</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13788749</v>
+        <v>9382576</v>
       </c>
       <c r="E34" t="n">
-        <v>2430761</v>
+        <v>1358514</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST6167</t>
+          <t>CUST4922</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>21098241</v>
+        <v>22137563</v>
       </c>
       <c r="E35" t="n">
-        <v>2880336</v>
+        <v>2664745</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST5372</t>
+          <t>CUST6475</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>21615387</v>
+        <v>11696225</v>
       </c>
       <c r="E36" t="n">
-        <v>3704750</v>
+        <v>1615772</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST6340</t>
+          <t>CUST5908</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18924274</v>
+        <v>8310240</v>
       </c>
       <c r="E37" t="n">
-        <v>3341397</v>
+        <v>1238633</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-04-30</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST3673</t>
+          <t>CUST6095</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24938087</v>
+        <v>15700010</v>
       </c>
       <c r="E38" t="n">
-        <v>4556153</v>
+        <v>2239508</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST1337</t>
+          <t>CUST7429</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>15984078</v>
+        <v>12625177</v>
       </c>
       <c r="E39" t="n">
-        <v>1822899</v>
+        <v>1626478</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-04-07</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST1579</t>
+          <t>CUST9674</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19133858</v>
+        <v>22555097</v>
       </c>
       <c r="E40" t="n">
-        <v>2287456</v>
+        <v>3765193</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST1595</t>
+          <t>CUST8056</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20456836</v>
+        <v>9282857</v>
       </c>
       <c r="E41" t="n">
-        <v>3988054</v>
+        <v>1342064</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST2064</t>
+          <t>CUST9308</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>22859098</v>
+        <v>11120624</v>
       </c>
       <c r="E42" t="n">
-        <v>3926412</v>
+        <v>1901752</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST6340</t>
+          <t>CUST4313</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23342550</v>
+        <v>24819850</v>
       </c>
       <c r="E43" t="n">
-        <v>3676251</v>
+        <v>4177917</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2765,24 +2765,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST8934</t>
+          <t>CUST4265</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>24080121</v>
+        <v>9815912</v>
       </c>
       <c r="E44" t="n">
-        <v>2453353</v>
+        <v>1551436</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST8347</t>
+          <t>CUST4653</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>15021516</v>
+        <v>13566015</v>
       </c>
       <c r="E45" t="n">
-        <v>2448988</v>
+        <v>1387968</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST1162</t>
+          <t>CUST8485</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>16223927</v>
+        <v>12954438</v>
       </c>
       <c r="E46" t="n">
-        <v>2768236</v>
+        <v>1791895</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST4444</t>
+          <t>CUST4313</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16533653</v>
+        <v>18208180</v>
       </c>
       <c r="E47" t="n">
-        <v>1702875</v>
+        <v>3231577</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST4444</t>
+          <t>CUST9308</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>16094226</v>
+        <v>14225556</v>
       </c>
       <c r="E48" t="n">
-        <v>1649511</v>
+        <v>1428887</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST4193</t>
+          <t>CUST4402</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>14957749</v>
+        <v>14076435</v>
       </c>
       <c r="E49" t="n">
-        <v>2255757</v>
+        <v>2192620</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST5942</t>
+          <t>CUST2022</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>10057302</v>
+        <v>21720707</v>
       </c>
       <c r="E50" t="n">
-        <v>1196454</v>
+        <v>2683491</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST1784</t>
+          <t>CUST2022</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8920029</v>
+        <v>10041424</v>
       </c>
       <c r="E51" t="n">
-        <v>1168313</v>
+        <v>1593029</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST1897</t>
+          <t>CUST5929</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9221697</v>
+        <v>12597522</v>
       </c>
       <c r="E52" t="n">
-        <v>1208235</v>
+        <v>1907609</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3229,12 +3229,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST3825</t>
+          <t>CUST6095</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>19252356</v>
+        <v>19808498</v>
       </c>
       <c r="E53" t="n">
-        <v>2348570</v>
+        <v>3845444</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1595</t>
+          <t>CUST5929</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20306276</v>
+        <v>16507158</v>
       </c>
       <c r="E54" t="n">
-        <v>3107582</v>
+        <v>3005911</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-04-09</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST4684</t>
+          <t>CUST9308</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>20558767</v>
+        <v>17242883</v>
       </c>
       <c r="E55" t="n">
-        <v>2980357</v>
+        <v>2896275</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST6007</t>
+          <t>CUST2775</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>18253300</v>
+        <v>18883693</v>
       </c>
       <c r="E56" t="n">
-        <v>2188853</v>
+        <v>3046637</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST6826</t>
+          <t>CUST7441</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15252091</v>
+        <v>23719483</v>
       </c>
       <c r="E57" t="n">
-        <v>2721613</v>
+        <v>3745569</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST3593</t>
+          <t>CUST2775</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10125897</v>
+        <v>22347151</v>
       </c>
       <c r="E58" t="n">
-        <v>1809939</v>
+        <v>3998041</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST6167</t>
+          <t>CUST4164</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>15005053</v>
+        <v>20597160</v>
       </c>
       <c r="E59" t="n">
-        <v>1686698</v>
+        <v>3628203</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST5865</t>
+          <t>CUST2955</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>23615270</v>
+        <v>19334875</v>
       </c>
       <c r="E60" t="n">
-        <v>4214560</v>
+        <v>3822910</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-04-07</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST2970</t>
+          <t>CUST3005</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>18607157</v>
+        <v>11748791</v>
       </c>
       <c r="E61" t="n">
-        <v>2400547</v>
+        <v>2193543</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>5987547</v>
+        <v>5103456</v>
       </c>
       <c r="E2" t="n">
-        <v>882563</v>
+        <v>1442432</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.8</v>
+        <v>76.7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5567820</v>
+        <v>7538540</v>
       </c>
       <c r="E3" t="n">
-        <v>1361046</v>
+        <v>1319915</v>
       </c>
     </row>
     <row r="4">
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.5</v>
+        <v>74.5</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>8075187</v>
+        <v>18522684</v>
       </c>
       <c r="E4" t="n">
-        <v>815613</v>
+        <v>1889524</v>
       </c>
     </row>
     <row r="5">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6608914</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1427696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>66.2</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>5338954</v>
+        <v>2780995</v>
       </c>
       <c r="E7" t="n">
-        <v>558168</v>
+        <v>648676</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.3</v>
+        <v>77.5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2898576</v>
+        <v>3023943</v>
       </c>
       <c r="E8" t="n">
-        <v>393185</v>
+        <v>757367</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.3</v>
+        <v>64.8</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>5298926</v>
+        <v>6170157</v>
       </c>
       <c r="E9" t="n">
-        <v>585010</v>
+        <v>1063370</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.8</v>
+        <v>79.8</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2710357</v>
+        <v>4223675</v>
       </c>
       <c r="E10" t="n">
-        <v>608492</v>
+        <v>1128823</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.7</v>
+        <v>72.3</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5368073</v>
+        <v>3251397</v>
       </c>
       <c r="E11" t="n">
-        <v>855183</v>
+        <v>812695</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2896237</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>408655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>8463309</v>
+        <v>4006231</v>
       </c>
       <c r="E14" t="n">
-        <v>1309572</v>
+        <v>931872</v>
       </c>
     </row>
     <row r="15">
@@ -4024,16 +4024,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.8</v>
+        <v>64.3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1823095</v>
+        <v>4985687</v>
       </c>
       <c r="E15" t="n">
-        <v>236476</v>
+        <v>669745</v>
       </c>
     </row>
     <row r="16">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>6144529</v>
+        <v>2706047</v>
       </c>
       <c r="E16" t="n">
-        <v>1152221</v>
+        <v>274197</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.59999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>10409646</v>
+        <v>5162664</v>
       </c>
       <c r="E17" t="n">
-        <v>1975155</v>
+        <v>1328273</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>14376081</v>
+        <v>9260899</v>
       </c>
       <c r="E18" t="n">
-        <v>2691388</v>
+        <v>2204058</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7114834</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1424048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4303251</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1097545</v>
       </c>
     </row>
     <row r="21">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>5674067</v>
+        <v>4768504</v>
       </c>
       <c r="E21" t="n">
-        <v>664941</v>
+        <v>692467</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73</v>
+        <v>64.2</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>8444285</v>
+        <v>13433432</v>
       </c>
       <c r="E22" t="n">
-        <v>2436804</v>
+        <v>2736603</v>
       </c>
     </row>
     <row r="23">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>67.5</v>
+        <v>62.3</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>8333144</v>
+        <v>2954554</v>
       </c>
       <c r="E23" t="n">
-        <v>1705622</v>
+        <v>846188</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>67.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>1380267</v>
+        <v>17253545</v>
       </c>
       <c r="E24" t="n">
-        <v>155039</v>
+        <v>2972647</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.6</v>
+        <v>68.7</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>7902394</v>
+        <v>11124238</v>
       </c>
       <c r="E25" t="n">
-        <v>1539986</v>
+        <v>2267140</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3587815</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>556769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77</v>
+        <v>64.3</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>2072519</v>
+        <v>3340199</v>
       </c>
       <c r="E28" t="n">
-        <v>248932</v>
+        <v>804546</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>66.5</v>
+        <v>65.5</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>9300314</v>
+        <v>6328080</v>
       </c>
       <c r="E29" t="n">
-        <v>1251903</v>
+        <v>845644</v>
       </c>
     </row>
     <row r="30">
@@ -4309,16 +4309,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>10506368</v>
+        <v>3081839</v>
       </c>
       <c r="E30" t="n">
-        <v>2730613</v>
+        <v>897158</v>
       </c>
     </row>
     <row r="31">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.8</v>
+        <v>62.9</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>8629489</v>
+        <v>3946033</v>
       </c>
       <c r="E31" t="n">
-        <v>1388721</v>
+        <v>977822</v>
       </c>
     </row>
   </sheetData>
